--- a/Bases de Dados/Emails.xlsx
+++ b/Bases de Dados/Emails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Documentos\Automação_de_indicadores\Projeto Automacao Indicadores\Projeto AutomacaoIndicadores\Bases de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Documentos\Automação_de_indicadores\Bases de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A894E45-EBCC-4B90-A696-30DE0DE6E920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF076F3C-A535-42E9-A4EA-FB57B344BACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14685" yWindow="1605" windowWidth="21465" windowHeight="13305" xr2:uid="{EE9D8D8A-F7B1-481B-B9DF-10FF6CFE8B3E}"/>
+    <workbookView xWindow="8985" yWindow="1065" windowWidth="21465" windowHeight="13305" xr2:uid="{EE9D8D8A-F7B1-481B-B9DF-10FF6CFE8B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Loja</t>
   </si>
@@ -186,19 +186,85 @@
     <t>Theo</t>
   </si>
   <si>
-    <t>teste.mfreitas@gmail.com</t>
-  </si>
-  <si>
     <t>Marcos</t>
   </si>
   <si>
-    <t>teste.abcosta@gmail.com</t>
-  </si>
-  <si>
-    <t>teste.nrlima@gmail.com</t>
-  </si>
-  <si>
-    <t>lysmi.elly@gmail.com</t>
+    <t>teste.msfreitas@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.acosta@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.kelima@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.lysmi@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.wfreitas@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.hlima@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.elly@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.efcosta@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.kelly@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.icosta@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.vefreitas@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.yrcosta@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.jkfreitas@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.bella@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.bjlfreitas@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.miucosta@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.julima@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.gaby@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.luccas@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.sgmattos@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.kefra@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.latte@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.renaa@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.xifila@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.bxfreitas@gmail.com</t>
+  </si>
+  <si>
+    <t>teste.diretoria@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -564,7 +630,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -639,7 +705,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,7 +716,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,7 +727,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,7 +738,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -683,7 +749,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,7 +760,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,7 +771,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -727,7 +793,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -738,7 +804,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,7 +815,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,7 +826,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +837,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,7 +848,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,7 +859,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +870,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,7 +881,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,7 +892,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,7 +903,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,7 +914,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,7 +925,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,7 +936,7 @@
         <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -904,6 +970,9 @@
     <hyperlink ref="C27" r:id="rId21" xr:uid="{D6B0EC76-ED3A-43DD-A8D8-3F49C3CA1C69}"/>
     <hyperlink ref="C9" r:id="rId22" xr:uid="{73B34039-CF19-4769-AFD9-94BA558DADCB}"/>
     <hyperlink ref="C10" r:id="rId23" xr:uid="{47F7B02A-A1FD-4B55-AEE3-FC4CA00B121E}"/>
+    <hyperlink ref="C8" r:id="rId24" xr:uid="{E3A1747B-703A-4785-AB51-3A9A4BE9DDC6}"/>
+    <hyperlink ref="C15" r:id="rId25" xr:uid="{5CAA5B41-4C32-4D2C-96BF-4A7C75723554}"/>
+    <hyperlink ref="C22" r:id="rId26" xr:uid="{6453E89B-283D-4ADE-8CDC-5EFDA96D4FB5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
